--- a/data/DATA_SENO_DIRECTO.xlsx
+++ b/data/DATA_SENO_DIRECTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALEJO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos\Documents\Clases\SistemasInteligentes\SI_2023_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9F2F14-6BCA-4820-BCB1-3C8886A05E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839960BD-4291-4AAB-BCA2-8620A8B3C6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5210" yWindow="1990" windowWidth="27490" windowHeight="18740" xr2:uid="{99A79084-4877-EF4A-9BDC-756C609AFFD1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{99A79084-4877-EF4A-9BDC-756C609AFFD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -130,7 +126,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1066,7 +1062,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="123446319"/>
@@ -1125,7 +1121,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="189159663"/>
@@ -1173,7 +1169,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2080,13 +2076,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3ABF18-2156-1E4A-B910-75BAC446450C}">
   <dimension ref="A1:JU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:281" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2931,7 +2925,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:281" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -3776,7 +3770,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:281" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9.9833416646828155E-2</v>
       </c>
@@ -4621,7 +4615,7 @@
         <v>0.17345215524589211</v>
       </c>
     </row>
-    <row r="6" spans="1:281" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:281" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4633,7 +4627,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:281" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:281" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4645,7 +4639,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:281" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:281" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4669,18 +4663,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4852,14 +4846,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38B0F432-D05C-45C7-BA59-AE62D359093B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{922BB392-6F7E-489D-AE48-5B453BD465B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4868,6 +4854,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38B0F432-D05C-45C7-BA59-AE62D359093B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F61E50C-D2F4-4DBC-BC25-CAECD83C50E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F61E50C-D2F4-4DBC-BC25-CAECD83C50E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e8ecb1fc-7aec-4441-80dd-a77b8c7f1099"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>